--- a/data/raw/interaction_matrices/willem_2012/0_20_60/total.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/total.xlsx
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,7 +156,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -156,63 +165,60 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10.2538695234281</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>7.33397929501721</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.857220384854563</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2.66677578326822</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>15.952559276604</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>2.19648110528056</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.756026939898331</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>5.32752418198222</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>3.08488299026209</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>5.65128964674738</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>4.0975697365943</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.68124241102489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1.4899550849873</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>6.40134524773823</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.966877740775774</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.600822874065799</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2.34514402724412</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1.69856318894353</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.803211907254392</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.881485470391994</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0716534738868884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.320525053478304</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2.65469948618587</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.392222013661693</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0631949001130907</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.951327219462477</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.35706245714156</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.92168176966371</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.88702253077572</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.156000903348063</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.68615764854602</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>5.76040239420554</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.850572941430611</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.137585255394529</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2.06304889357676</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.929429564281368</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>6.35345367252463</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>3.88312177725664</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.45855125264135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1.41197768667073</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>6.72615524451715</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.761588081768125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.404420037654383</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.8472177668976</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1.45059846242276</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3.24641151016952</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2.01650300212266</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.148239555567526</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.733239235704137</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2.75421266551623</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.218061208862348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.130740121849319</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.528903417640847</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.658994835427887</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
